--- a/output/1Y_P90_1VAL-D.xlsx
+++ b/output/1Y_P90_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>566.104</v>
       </c>
-      <c r="G2" s="1">
-        <v>566.104</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.144899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6646</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.144899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E3" s="1">
+        <v>566.104</v>
+      </c>
       <c r="F3" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G3" s="1">
-        <v>1145.5185</v>
-      </c>
       <c r="H3" s="1">
-        <v>19667.7511</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4593</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6646</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19667.7511</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0141</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E4" s="1">
+        <v>1145.5185</v>
+      </c>
       <c r="F4" s="1">
         <v>593.581</v>
       </c>
-      <c r="G4" s="1">
-        <v>1739.0995</v>
-      </c>
       <c r="H4" s="1">
-        <v>29146.6125</v>
+        <v>19198.4322</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.2503</v>
+        <v>19198.4322</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.4593</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.47</v>
       </c>
-      <c r="L4" s="1">
-        <v>484.5543</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9515.4457</v>
+        <v>239.462</v>
       </c>
       <c r="O4" s="1">
-        <v>484.5543</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29631.1669</v>
+        <v>-9760.538</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0012</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E5" s="1">
+        <v>1739.0995</v>
+      </c>
       <c r="F5" s="1">
-        <v>592.3117</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2331.4112</v>
+        <v>590.7073</v>
       </c>
       <c r="H5" s="1">
-        <v>39367.7436</v>
+        <v>29366.0869</v>
       </c>
       <c r="I5" s="1">
-        <v>40053.8394</v>
+        <v>239.462</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1801</v>
+        <v>29605.5489</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30026.6069</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.2656</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10053.8394</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>430.715</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39798.4586</v>
+        <v>-10026.6069</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E6" s="1">
+        <v>2329.8068</v>
+      </c>
       <c r="F6" s="1">
-        <v>568.6979</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2900.1091</v>
+        <v>567.1575</v>
       </c>
       <c r="H6" s="1">
-        <v>51004.2189</v>
+        <v>40974.313</v>
       </c>
       <c r="I6" s="1">
-        <v>50107.6787</v>
+        <v>212.8551</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2779</v>
+        <v>41187.1681</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40053.2138</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1916</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10053.8394</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>376.8756</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51381.0945</v>
+        <v>-10026.6069</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0318</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E7" s="1">
+        <v>2896.9643</v>
+      </c>
       <c r="F7" s="1">
-        <v>565.4832</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3465.5923</v>
+        <v>563.9515</v>
       </c>
       <c r="H7" s="1">
-        <v>61295.9317</v>
+        <v>51238.608</v>
       </c>
       <c r="I7" s="1">
-        <v>60161.5181</v>
+        <v>186.2482</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3597</v>
+        <v>51424.8562</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50079.8207</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.287</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10053.8394</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>323.0362</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61618.9679</v>
+        <v>-10026.6069</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0039</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E8" s="1">
+        <v>3460.9158</v>
+      </c>
       <c r="F8" s="1">
-        <v>558.376</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4023.9684</v>
+        <v>556.8636</v>
       </c>
       <c r="H8" s="1">
-        <v>72078.126</v>
+        <v>61992.6168</v>
       </c>
       <c r="I8" s="1">
-        <v>70215.3575</v>
+        <v>159.6413</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4493</v>
+        <v>62152.2581</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60106.4275</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3672</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10053.8394</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>269.1969</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72347.32279999999</v>
+        <v>-10026.6069</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0102</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E9" s="1">
+        <v>4017.7794</v>
+      </c>
       <c r="F9" s="1">
-        <v>554.3459</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4578.3143</v>
+        <v>552.8444</v>
       </c>
       <c r="H9" s="1">
-        <v>82603.31969999999</v>
+        <v>72489.9814</v>
       </c>
       <c r="I9" s="1">
-        <v>80269.1969</v>
+        <v>133.0344</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5325</v>
+        <v>72623.0159</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70133.0344</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.4557</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10053.8394</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>215.3575</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82818.6771</v>
+        <v>-10026.6069</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0057</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E10" s="1">
+        <v>4570.6238</v>
+      </c>
       <c r="F10" s="1">
-        <v>550.5785</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5128.8928</v>
+        <v>549.0872000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93170.44100000001</v>
+        <v>83029.0377</v>
       </c>
       <c r="I10" s="1">
-        <v>90323.0362</v>
+        <v>106.4275</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6106</v>
+        <v>83135.4653</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80159.6413</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.538</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10053.8394</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>161.5181</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93331.9592</v>
+        <v>-10026.6069</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0055</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E11" s="1">
+        <v>5119.711</v>
+      </c>
       <c r="F11" s="1">
-        <v>557.8617</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5686.7545</v>
+        <v>556.3506</v>
       </c>
       <c r="H11" s="1">
-        <v>101955.547</v>
+        <v>91789.2506</v>
       </c>
       <c r="I11" s="1">
-        <v>100376.8756</v>
+        <v>79.8207</v>
       </c>
       <c r="J11" s="1">
-        <v>17.651</v>
+        <v>91869.07120000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90186.2482</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6155</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10053.8394</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>107.6787</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>102063.2257</v>
+        <v>-10026.6069</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0123</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E12" s="1">
+        <v>5676.0616</v>
+      </c>
       <c r="F12" s="1">
-        <v>549.8528</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6236.6074</v>
+        <v>548.3635</v>
       </c>
       <c r="H12" s="1">
-        <v>113442.6406</v>
+        <v>103246.426</v>
       </c>
       <c r="I12" s="1">
-        <v>110430.715</v>
+        <v>53.2138</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7069</v>
+        <v>103299.6398</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100212.8551</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6554</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10053.8394</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>53.8394</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113496.4799</v>
+        <v>-10026.6069</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0128</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.485</v>
       </c>
+      <c r="E13" s="1">
+        <v>6224.4251</v>
+      </c>
       <c r="F13" s="1">
-        <v>609.878</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6846.4854</v>
+        <v>608.2261</v>
       </c>
       <c r="H13" s="1">
-        <v>112279.6219</v>
+        <v>102078.0822</v>
       </c>
       <c r="I13" s="1">
-        <v>120484.5543</v>
+        <v>26.6069</v>
       </c>
       <c r="J13" s="1">
-        <v>17.598</v>
+        <v>102104.6891</v>
       </c>
       <c r="K13" s="1">
+        <v>110239.462</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.7108</v>
+      </c>
+      <c r="M13" s="1">
         <v>1.538</v>
       </c>
-      <c r="L13" s="1">
-        <v>8632.7119</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-1421.1275</v>
+        <v>7856.8045</v>
       </c>
       <c r="O13" s="1">
-        <v>8632.7119</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120912.3338</v>
+        <v>-2169.8024</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0209</v>
+        <v>-0.0988</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E14" s="1">
+        <v>6832.6512</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6846.4854</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6224.4251</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>115392.5465</v>
       </c>
       <c r="I14" s="1">
-        <v>120484.5543</v>
+        <v>7856.8045</v>
       </c>
       <c r="J14" s="1">
-        <v>17.598</v>
+        <v>123249.351</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110239.462</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1342</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>115626.1839</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124258.8958</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124258.8958</v>
+        <v>105120.5812</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0508</v>
+        <v>0.0994</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.6646</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>566.104</v>
       </c>
       <c r="G2" s="1">
-        <v>566.104</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.144899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6646</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.144899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.2588</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>566.104</v>
       </c>
       <c r="F3" s="1">
         <v>579.4146</v>
       </c>
       <c r="G3" s="1">
-        <v>1145.5185</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19667.7511</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4593</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6646</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19667.7511</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0141</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.8469</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1145.5185</v>
       </c>
       <c r="F4" s="1">
         <v>593.581</v>
       </c>
       <c r="G4" s="1">
-        <v>1739.0995</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29146.6125</v>
+        <v>19198.4322</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.2503</v>
+        <v>19198.4322</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.4593</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.47</v>
       </c>
-      <c r="L4" s="1">
-        <v>484.5543</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9515.4457</v>
+        <v>239.462</v>
       </c>
       <c r="O4" s="1">
-        <v>484.5543</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29631.1669</v>
+        <v>-9760.538</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0012</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.9739</v>
       </c>
       <c r="E5" s="1">
+        <v>1739.0995</v>
+      </c>
+      <c r="F5" s="1">
+        <v>603.2474999999999</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>617.6867999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2356.7864</v>
-      </c>
       <c r="H5" s="1">
-        <v>39796.223</v>
+        <v>29366.0869</v>
       </c>
       <c r="I5" s="1">
-        <v>40484.5543</v>
+        <v>239.462</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1779</v>
+        <v>29605.5489</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30239.462</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.388</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10484.5543</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39796.223</v>
+        <v>-10239.462</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.6787</v>
       </c>
       <c r="E6" s="1">
+        <v>2342.347</v>
+      </c>
+      <c r="F6" s="1">
+        <v>500.6621</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>486.2227</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2843.009</v>
-      </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41194.8565</v>
       </c>
       <c r="I6" s="1">
-        <v>49080.3393</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2635</v>
+        <v>41194.8565</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39090.5162</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.6886</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-8595.785</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1404.215</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51404.215</v>
+        <v>-8851.0542</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0323</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.7792</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2843.009</v>
       </c>
       <c r="F7" s="1">
         <v>549.313</v>
       </c>
       <c r="G7" s="1">
-        <v>3392.322</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50284.3009</v>
       </c>
       <c r="I7" s="1">
-        <v>58846.6851</v>
+        <v>1148.9458</v>
       </c>
       <c r="J7" s="1">
-        <v>17.347</v>
+        <v>51433.2467</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48856.862</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.1849</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9766.345799999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>1637.8692</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61637.8692</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0038</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.0055</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3392.322</v>
       </c>
       <c r="F8" s="1">
         <v>515.629</v>
       </c>
       <c r="G8" s="1">
-        <v>3907.951</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60763.9509</v>
       </c>
       <c r="I8" s="1">
-        <v>68130.8423</v>
+        <v>1382.6</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4339</v>
+        <v>62146.5509</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58141.0192</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.139</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9284.157300000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>2353.712</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72353.712</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.01</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.1364</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3907.951</v>
       </c>
       <c r="F9" s="1">
         <v>526.0735</v>
       </c>
       <c r="G9" s="1">
-        <v>4434.0245</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70508.4244</v>
       </c>
       <c r="I9" s="1">
-        <v>77671.92140000001</v>
+        <v>2098.4428</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5173</v>
+        <v>72606.86719999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67682.0983</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3191</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9541.079100000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>2812.6329</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82812.6329</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0056</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.2605</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4434.0245</v>
       </c>
       <c r="F10" s="1">
         <v>520.3403</v>
       </c>
       <c r="G10" s="1">
-        <v>4954.3648</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80547.602</v>
       </c>
       <c r="I10" s="1">
-        <v>87173.5956</v>
+        <v>2557.3637</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5953</v>
+        <v>83104.9657</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77183.77250000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4072</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9501.674199999999</v>
       </c>
-      <c r="O10" s="1">
-        <v>3310.9587</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93310.9587</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0054</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.0221</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4954.3648</v>
       </c>
       <c r="F11" s="1">
         <v>623.3156</v>
       </c>
       <c r="G11" s="1">
-        <v>5577.6804</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>88824.8247</v>
       </c>
       <c r="I11" s="1">
-        <v>98407.05100000001</v>
+        <v>3055.6895</v>
       </c>
       <c r="J11" s="1">
-        <v>17.643</v>
+        <v>91880.5141</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88417.22779999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8463</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11233.4553</v>
       </c>
-      <c r="O11" s="1">
-        <v>2077.5034</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102077.5034</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0119</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.2846</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5577.6804</v>
       </c>
       <c r="F12" s="1">
         <v>469.6649</v>
       </c>
       <c r="G12" s="1">
-        <v>6047.3452</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>101456.8901</v>
       </c>
       <c r="I12" s="1">
-        <v>106994.6851</v>
+        <v>1822.2341</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6928</v>
+        <v>103279.1242</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97004.86199999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.3916</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8587.634099999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>3489.8692</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113489.8692</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0126</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.485</v>
       </c>
       <c r="E13" s="1">
+        <v>6047.3452</v>
+      </c>
+      <c r="F13" s="1">
+        <v>802.8268</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>818.3117999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6865.657</v>
-      </c>
       <c r="H13" s="1">
-        <v>112594.028</v>
+        <v>99174.0426</v>
       </c>
       <c r="I13" s="1">
-        <v>120484.5543</v>
+        <v>3234.6</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5489</v>
+        <v>102408.6426</v>
       </c>
       <c r="K13" s="1">
+        <v>110239.462</v>
+      </c>
+      <c r="L13" s="1">
+        <v>18.2294</v>
+      </c>
+      <c r="M13" s="1">
         <v>1.538</v>
       </c>
-      <c r="L13" s="1">
-        <v>8370.735199999999</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-5119.134</v>
+        <v>7720.6251</v>
       </c>
       <c r="O13" s="1">
-        <v>8370.735199999999</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120964.7633</v>
+        <v>-5513.9749</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0204</v>
+        <v>-0.096</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>16.9765</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6850.172</v>
       </c>
       <c r="F14" s="1">
-        <v>-6865.657</v>
+        <v>-6850.172</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>115688.4453</v>
       </c>
       <c r="I14" s="1">
-        <v>120484.5543</v>
+        <v>7720.6251</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5489</v>
+        <v>123409.0704</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110239.462</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0929</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>115949.9611</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124320.6964</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124320.6964</v>
+        <v>115688.4453</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0507</v>
+        <v>0.0979</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.6646</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>566.104</v>
       </c>
       <c r="G2" s="1">
-        <v>566.104</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.144899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6646</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.144899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.2588</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>566.104</v>
       </c>
       <c r="F3" s="1">
         <v>579.4146</v>
       </c>
       <c r="G3" s="1">
-        <v>1145.5185</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19667.7511</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4593</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6646</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19667.7511</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0141</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.8469</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1145.5185</v>
       </c>
       <c r="F4" s="1">
         <v>593.581</v>
       </c>
       <c r="G4" s="1">
-        <v>1739.0995</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29146.6125</v>
+        <v>19198.4322</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.2503</v>
+        <v>19198.4322</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.4593</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.47</v>
       </c>
-      <c r="L4" s="1">
-        <v>484.5543</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9515.4457</v>
+        <v>239.462</v>
       </c>
       <c r="O4" s="1">
-        <v>484.5543</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29631.1669</v>
+        <v>-9760.538</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0012</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.9739</v>
       </c>
       <c r="E5" s="1">
+        <v>1739.0995</v>
+      </c>
+      <c r="F5" s="1">
+        <v>603.2474999999999</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>617.6867999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2356.7864</v>
-      </c>
       <c r="H5" s="1">
-        <v>39796.223</v>
+        <v>29366.0869</v>
       </c>
       <c r="I5" s="1">
-        <v>40484.5543</v>
+        <v>239.462</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1779</v>
+        <v>29605.5489</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30239.462</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.388</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10484.5543</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39796.223</v>
+        <v>-10239.462</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.6787</v>
       </c>
       <c r="E6" s="1">
+        <v>2342.347</v>
+      </c>
+      <c r="F6" s="1">
+        <v>529.2346</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>514.7953</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2871.5816</v>
-      </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41194.8565</v>
       </c>
       <c r="I6" s="1">
-        <v>49585.4657</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2676</v>
+        <v>41194.8565</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39595.6426</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.9043</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-9100.911400000001</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>899.0886</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51401.5949</v>
+        <v>-9356.1806</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0322</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.7792</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2871.5816</v>
       </c>
       <c r="F7" s="1">
         <v>563.4281999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3435.0098</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50789.6644</v>
       </c>
       <c r="I7" s="1">
-        <v>59602.7681</v>
+        <v>643.8194</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3516</v>
+        <v>51433.4838</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49612.945</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2772</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10017.3024</v>
       </c>
-      <c r="O7" s="1">
-        <v>881.7862</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61636.805</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0038</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.0055</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3435.0098</v>
       </c>
       <c r="F8" s="1">
         <v>532.0513999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3967.0612</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61528.583</v>
       </c>
       <c r="I8" s="1">
-        <v>69182.6194</v>
+        <v>626.5170000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4393</v>
+        <v>62155.1</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59192.7963</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2322</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9579.8513</v>
       </c>
-      <c r="O8" s="1">
-        <v>1301.9349</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72360.7288</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0101</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.1364</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3967.0612</v>
       </c>
       <c r="F9" s="1">
         <v>545.3395</v>
       </c>
       <c r="G9" s="1">
-        <v>4512.4007</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71574.90850000001</v>
       </c>
       <c r="I9" s="1">
-        <v>79073.1152</v>
+        <v>1046.6657</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5235</v>
+        <v>72621.5742</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69083.292</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.4142</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9890.495800000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>1411.4392</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82825.527</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0056</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.2605</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4512.4007</v>
       </c>
       <c r="F10" s="1">
         <v>542.2161</v>
       </c>
       <c r="G10" s="1">
-        <v>5054.6168</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>81971.36930000001</v>
       </c>
       <c r="I10" s="1">
-        <v>88974.25199999999</v>
+        <v>1156.1699</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6026</v>
+        <v>83127.5393</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78984.42879999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5039</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9901.1368</v>
       </c>
-      <c r="O10" s="1">
-        <v>1510.3024</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93331.46060000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0055</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.0221</v>
       </c>
       <c r="E11" s="1">
+        <v>5054.6168</v>
+      </c>
+      <c r="F11" s="1">
+        <v>624.5128999999999</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>638.6771</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5693.2939</v>
-      </c>
       <c r="H11" s="1">
-        <v>102072.7892</v>
+        <v>90622.2032</v>
       </c>
       <c r="I11" s="1">
-        <v>100484.5543</v>
+        <v>1255.0331</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6496</v>
+        <v>91877.2363</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90239.462</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8529</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11510.3024</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>102072.7892</v>
+        <v>-11255.0331</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0122</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.2846</v>
       </c>
       <c r="E12" s="1">
+        <v>5679.1297</v>
+      </c>
+      <c r="F12" s="1">
+        <v>521.6898</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>507.5255</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6200.8194</v>
-      </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>103302.233</v>
       </c>
       <c r="I12" s="1">
-        <v>109764.4556</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7016</v>
+        <v>103302.233</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99778.3505</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5693</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-9279.9012</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>720.0988</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113511.7642</v>
+        <v>-9538.8886</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0128</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.485</v>
       </c>
       <c r="E13" s="1">
+        <v>6200.8194</v>
+      </c>
+      <c r="F13" s="1">
+        <v>634.5836</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>650.2941</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6851.1136</v>
-      </c>
       <c r="H13" s="1">
-        <v>112355.5221</v>
+        <v>101690.9584</v>
       </c>
       <c r="I13" s="1">
-        <v>120484.5543</v>
+        <v>461.1114</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5861</v>
+        <v>102152.0699</v>
       </c>
       <c r="K13" s="1">
+        <v>110239.462</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.7782</v>
+      </c>
+      <c r="M13" s="1">
         <v>1.538</v>
       </c>
-      <c r="L13" s="1">
-        <v>8583.174300000001</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-2136.9245</v>
+        <v>7861.0513</v>
       </c>
       <c r="O13" s="1">
-        <v>8583.174300000001</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120938.6964</v>
+        <v>-2600.0601</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0208</v>
+        <v>-0.0984</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>16.9765</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6835.4031</v>
       </c>
       <c r="F14" s="1">
-        <v>-6851.1136</v>
+        <v>-6835.4031</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>115439.0215</v>
       </c>
       <c r="I14" s="1">
-        <v>120484.5543</v>
+        <v>7861.0513</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5861</v>
+        <v>123300.0728</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110239.462</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1277</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>115704.3464</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124287.5207</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124287.5207</v>
+        <v>115439.0215</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0508</v>
+        <v>0.0994</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.6646</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>566.104</v>
       </c>
       <c r="G2" s="1">
-        <v>566.104</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.144899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6646</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.144899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.2588</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>566.104</v>
       </c>
       <c r="F3" s="1">
         <v>579.4146</v>
       </c>
       <c r="G3" s="1">
-        <v>1145.5185</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19667.7511</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4593</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6646</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19667.7511</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0141</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.8469</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1145.5185</v>
       </c>
       <c r="F4" s="1">
         <v>593.581</v>
       </c>
       <c r="G4" s="1">
-        <v>1739.0995</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29146.6125</v>
+        <v>19198.4322</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.2503</v>
+        <v>19198.4322</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.4593</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.47</v>
       </c>
-      <c r="L4" s="1">
-        <v>484.5543</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9515.4457</v>
+        <v>239.462</v>
       </c>
       <c r="O4" s="1">
-        <v>484.5543</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29631.1669</v>
+        <v>-9760.538</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0012</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.9739</v>
       </c>
       <c r="E5" s="1">
+        <v>1739.0995</v>
+      </c>
+      <c r="F5" s="1">
+        <v>603.2474999999999</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>617.6867999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2356.7864</v>
-      </c>
       <c r="H5" s="1">
-        <v>39796.223</v>
+        <v>29366.0869</v>
       </c>
       <c r="I5" s="1">
-        <v>40484.5543</v>
+        <v>239.462</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1779</v>
+        <v>29605.5489</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30239.462</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.388</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10484.5543</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39796.223</v>
+        <v>-10239.462</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.6787</v>
       </c>
       <c r="E6" s="1">
+        <v>2342.347</v>
+      </c>
+      <c r="F6" s="1">
+        <v>558.0937</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>543.6543</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2900.4407</v>
-      </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41194.8565</v>
       </c>
       <c r="I6" s="1">
-        <v>50095.6559</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2717</v>
+        <v>41194.8565</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40105.8328</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1221</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-9611.1016</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>388.8984</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51398.9485</v>
+        <v>-9866.370800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0322</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.7792</v>
       </c>
       <c r="E7" s="1">
+        <v>2900.4407</v>
+      </c>
+      <c r="F7" s="1">
+        <v>569.971</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>577.8287</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3478.2694</v>
-      </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51300.0942</v>
       </c>
       <c r="I7" s="1">
-        <v>60368.9882</v>
+        <v>133.6292</v>
       </c>
       <c r="J7" s="1">
-        <v>17.356</v>
+        <v>51433.7234</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50239.462</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3213</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10273.3322</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>115.5662</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61635.7168</v>
+        <v>-10133.6292</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0039</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.0055</v>
       </c>
       <c r="E8" s="1">
+        <v>3470.4117</v>
+      </c>
+      <c r="F8" s="1">
+        <v>556.7515</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>548.8938000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4027.1632</v>
-      </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>62162.7088</v>
       </c>
       <c r="I8" s="1">
-        <v>70252.0952</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4446</v>
+        <v>62162.7088</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60264.0502</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3651</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-9883.107</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>232.4592</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72367.8113</v>
+        <v>-10024.5883</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0102</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.1364</v>
       </c>
       <c r="E9" s="1">
+        <v>4027.1632</v>
+      </c>
+      <c r="F9" s="1">
+        <v>550.0216</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>565.1951</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4592.3583</v>
-      </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>72659.28599999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80502.69960000001</v>
+        <v>-24.5883</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5297</v>
+        <v>72634.69779999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70239.462</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.4414</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10250.6045</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>-18.1453</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82838.5603</v>
+        <v>-9975.411700000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0057</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.2605</v>
       </c>
       <c r="E10" s="1">
+        <v>4577.1848</v>
+      </c>
+      <c r="F10" s="1">
+        <v>547.6301</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>546.6364</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5138.9947</v>
-      </c>
       <c r="H10" s="1">
-        <v>93353.9501</v>
+        <v>83148.2231</v>
       </c>
       <c r="I10" s="1">
-        <v>90484.5543</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6074</v>
+        <v>83148.2231</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80239.462</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5303</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9981.8547</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93353.9501</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0056</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.0221</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5124.8149</v>
       </c>
       <c r="F11" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5693.869</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>102083.0998</v>
+        <v>91880.7564</v>
       </c>
       <c r="I11" s="1">
-        <v>100484.5543</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6479</v>
+        <v>91880.7564</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90239.462</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6083</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102083.0998</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0123</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.2846</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5679.6892</v>
       </c>
       <c r="F12" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6240.7773</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>113518.4915</v>
+        <v>103312.4105</v>
       </c>
       <c r="I12" s="1">
-        <v>110484.5543</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7037</v>
+        <v>103312.4105</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100239.462</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6488</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113518.4915</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0128</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.485</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6226.5975</v>
       </c>
       <c r="F13" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6847.3894</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112294.4472</v>
+        <v>102113.7087</v>
       </c>
       <c r="I13" s="1">
-        <v>120484.5543</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5957</v>
+        <v>102113.7087</v>
       </c>
       <c r="K13" s="1">
+        <v>110239.462</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.7046</v>
+      </c>
+      <c r="M13" s="1">
         <v>1.538</v>
       </c>
-      <c r="L13" s="1">
-        <v>8638.484</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-1361.516</v>
+        <v>7861.8258</v>
       </c>
       <c r="O13" s="1">
-        <v>8638.484</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120932.9312</v>
+        <v>-2138.1742</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0209</v>
+        <v>-0.0988</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.9765</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6833.2096</v>
       </c>
       <c r="F14" s="1">
-        <v>-6847.3894</v>
+        <v>-6833.2096</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>115401.9769</v>
       </c>
       <c r="I14" s="1">
-        <v>120484.5543</v>
+        <v>7861.8258</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5957</v>
+        <v>123263.8026</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110239.462</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1329</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>115641.4512</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124279.9352</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124279.9352</v>
+        <v>115401.9769</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0508</v>
+        <v>0.09950000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.6646</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>566.104</v>
       </c>
       <c r="G2" s="1">
-        <v>566.104</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.144899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6646</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.144899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.2588</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>566.104</v>
       </c>
       <c r="F3" s="1">
         <v>579.4146</v>
       </c>
       <c r="G3" s="1">
-        <v>1145.5185</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19667.7511</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4593</v>
+        <v>9719.608700000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6646</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19667.7511</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0141</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.8469</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1145.5185</v>
       </c>
       <c r="F4" s="1">
         <v>593.581</v>
       </c>
       <c r="G4" s="1">
-        <v>1739.0995</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29146.6125</v>
+        <v>19198.4322</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.2503</v>
+        <v>19198.4322</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.4593</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.47</v>
       </c>
-      <c r="L4" s="1">
-        <v>484.5543</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9515.4457</v>
+        <v>239.462</v>
       </c>
       <c r="O4" s="1">
-        <v>484.5543</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29631.1669</v>
+        <v>-9760.538</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0012</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.9739</v>
       </c>
       <c r="E5" s="1">
+        <v>1739.0995</v>
+      </c>
+      <c r="F5" s="1">
+        <v>603.2474999999999</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>617.6867999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2356.7864</v>
-      </c>
       <c r="H5" s="1">
-        <v>39796.223</v>
+        <v>29366.0869</v>
       </c>
       <c r="I5" s="1">
-        <v>40484.5543</v>
+        <v>239.462</v>
       </c>
       <c r="J5" s="1">
-        <v>17.1779</v>
+        <v>29605.5489</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30239.462</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.388</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10484.5543</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39796.223</v>
+        <v>-10239.462</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.6787</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2342.347</v>
       </c>
       <c r="F6" s="1">
         <v>565.6525</v>
       </c>
       <c r="G6" s="1">
-        <v>2922.4388</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51396.9313</v>
+        <v>41194.8565</v>
       </c>
       <c r="I6" s="1">
-        <v>50484.5543</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2748</v>
+        <v>41194.8565</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40239.462</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.1791</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51396.9313</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0321</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.7792</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2907.9994</v>
       </c>
       <c r="F7" s="1">
         <v>562.455</v>
       </c>
       <c r="G7" s="1">
-        <v>3484.8938</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61637.3168</v>
+        <v>51433.7861</v>
       </c>
       <c r="I7" s="1">
-        <v>60484.5543</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3562</v>
+        <v>51433.7861</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50239.462</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2763</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61637.3168</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0039</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.0055</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3470.4544</v>
       </c>
       <c r="F8" s="1">
         <v>555.3859</v>
       </c>
       <c r="G8" s="1">
-        <v>4040.2797</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72370.2974</v>
+        <v>62163.4741</v>
       </c>
       <c r="I8" s="1">
-        <v>70484.5543</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4455</v>
+        <v>62163.4741</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60239.462</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3578</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72370.2974</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0102</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.1364</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4025.8403</v>
       </c>
       <c r="F9" s="1">
         <v>551.3773</v>
       </c>
       <c r="G9" s="1">
-        <v>4591.657</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82844.05319999999</v>
+        <v>72635.4184</v>
       </c>
       <c r="I9" s="1">
-        <v>80484.5543</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5284</v>
+        <v>72635.4184</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70239.462</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.4472</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82844.05319999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0058</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.2605</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4577.2176</v>
       </c>
       <c r="F10" s="1">
         <v>547.6301</v>
       </c>
       <c r="G10" s="1">
-        <v>5139.2871</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93359.2623</v>
+        <v>83148.8202</v>
       </c>
       <c r="I10" s="1">
-        <v>90484.5543</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6064</v>
+        <v>83148.8202</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80239.462</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5302</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93359.2623</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0055</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.0221</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5124.8478</v>
       </c>
       <c r="F11" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5694.1614</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>102088.3426</v>
+        <v>91881.34570000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100484.5543</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6469</v>
+        <v>91881.34570000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90239.462</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6082</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>102088.3426</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0123</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.2846</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5679.7221</v>
       </c>
       <c r="F12" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6241.0698</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>113523.8107</v>
+        <v>103313.0084</v>
       </c>
       <c r="I12" s="1">
-        <v>110484.5543</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7028</v>
+        <v>103313.0084</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100239.462</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6487</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113523.8107</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0128</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.485</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6226.6304</v>
       </c>
       <c r="F13" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6847.6818</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>112299.2429</v>
+        <v>102114.2477</v>
       </c>
       <c r="I13" s="1">
-        <v>120484.5543</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5949</v>
+        <v>102114.2477</v>
       </c>
       <c r="K13" s="1">
+        <v>110239.462</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.7045</v>
+      </c>
+      <c r="M13" s="1">
         <v>1.538</v>
       </c>
-      <c r="L13" s="1">
-        <v>8638.888800000001</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-1361.1112</v>
+        <v>7861.8713</v>
       </c>
       <c r="O13" s="1">
-        <v>8638.888800000001</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120938.1317</v>
+        <v>-2138.1287</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0209</v>
+        <v>-0.0988</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.9765</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6833.2425</v>
       </c>
       <c r="F14" s="1">
-        <v>-6847.6818</v>
+        <v>-6833.2425</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>115402.532</v>
       </c>
       <c r="I14" s="1">
-        <v>120484.5543</v>
+        <v>7861.8713</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5949</v>
+        <v>123264.4033</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110239.462</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1328</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>115646.3898</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124285.2785</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124285.2785</v>
+        <v>115402.532</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0508</v>
+        <v>0.09950000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.9307</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.598</v>
+        <v>16.1342</v>
       </c>
       <c r="D3" s="1">
-        <v>17.5489</v>
+        <v>16.0929</v>
       </c>
       <c r="E3" s="1">
-        <v>17.5861</v>
+        <v>16.1277</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5957</v>
+        <v>16.1329</v>
       </c>
       <c r="G3" s="1">
-        <v>17.5949</v>
+        <v>16.1328</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0324</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0252</v>
+        <v>0.0297</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0246</v>
+        <v>0.0308</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0248</v>
+        <v>0.0302</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0248</v>
+        <v>0.03</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0248</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1185</v>
       </c>
       <c r="C5" s="3">
-        <v>0.06850000000000001</v>
+        <v>0.1532</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0684</v>
+        <v>0.1503</v>
       </c>
       <c r="E5" s="3">
-        <v>0.06859999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0687</v>
+        <v>0.1533</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0687</v>
+        <v>0.1533</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.4445</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.665</v>
+        <v>0.061</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.6571</v>
+        <v>0.0694</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.6579</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.6573</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.6564</v>
+        <v>0.0629</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.06710000000000001</v>
+        <v>-0.1075</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06950000000000001</v>
+        <v>0.0545</v>
       </c>
       <c r="E7" s="3">
-        <v>0.068</v>
+        <v>0.052</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0673</v>
+        <v>0.0511</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0674</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>9117.2662</v>
+        <v>8096.2665</v>
       </c>
       <c r="D8" s="1">
-        <v>8855.2896</v>
+        <v>7960.0871</v>
       </c>
       <c r="E8" s="1">
-        <v>9067.7286</v>
+        <v>8100.5133</v>
       </c>
       <c r="F8" s="1">
-        <v>9123.0383</v>
+        <v>8101.2878</v>
       </c>
       <c r="G8" s="1">
-        <v>9123.4431</v>
+        <v>8101.3333</v>
       </c>
     </row>
   </sheetData>
